--- a/Code/Results/Cases/Case_9_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032321739825186</v>
+        <v>1.029878917914099</v>
       </c>
       <c r="D2">
-        <v>1.048987012312236</v>
+        <v>1.045734019748941</v>
       </c>
       <c r="E2">
-        <v>1.043807797757554</v>
+        <v>1.041678181913239</v>
       </c>
       <c r="F2">
-        <v>1.053498360594445</v>
+        <v>1.051245633200348</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.058744619530239</v>
+        <v>1.057195989548434</v>
       </c>
       <c r="J2">
-        <v>1.053576893821038</v>
+        <v>1.051201258492457</v>
       </c>
       <c r="K2">
-        <v>1.0598035958067</v>
+        <v>1.056590958464404</v>
       </c>
       <c r="L2">
-        <v>1.054688780141779</v>
+        <v>1.052585875874009</v>
       </c>
       <c r="M2">
-        <v>1.064259491160274</v>
+        <v>1.062034379995861</v>
       </c>
       <c r="N2">
-        <v>1.021201806907036</v>
+        <v>1.02040692283571</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.059429225133472</v>
+        <v>1.057668241521285</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.053356405447947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.051093485892954</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026844581286301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036153636374643</v>
+        <v>1.033512288894725</v>
       </c>
       <c r="D3">
-        <v>1.051649885534879</v>
+        <v>1.048164713413242</v>
       </c>
       <c r="E3">
-        <v>1.046787565593323</v>
+        <v>1.044479416783348</v>
       </c>
       <c r="F3">
-        <v>1.056282234775224</v>
+        <v>1.053857089245172</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.059775293270318</v>
+        <v>1.058098631212347</v>
       </c>
       <c r="J3">
-        <v>1.055704993464979</v>
+        <v>1.053129271974453</v>
       </c>
       <c r="K3">
-        <v>1.06166194538082</v>
+        <v>1.0582162887017</v>
       </c>
       <c r="L3">
-        <v>1.056854844684129</v>
+        <v>1.054573130647279</v>
       </c>
       <c r="M3">
-        <v>1.06624226915575</v>
+        <v>1.06384428994914</v>
       </c>
       <c r="N3">
-        <v>1.021950943508543</v>
+        <v>1.020941919349808</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.060998419552489</v>
+        <v>1.059100629483965</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.054667757321477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.052239805146087</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02719267505473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038591758960341</v>
+        <v>1.035825507164773</v>
       </c>
       <c r="D4">
-        <v>1.053348276143975</v>
+        <v>1.049716323313562</v>
       </c>
       <c r="E4">
-        <v>1.048689010499439</v>
+        <v>1.046268439183113</v>
       </c>
       <c r="F4">
-        <v>1.058059562152673</v>
+        <v>1.055525676814255</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.060424034179684</v>
+        <v>1.058666456095596</v>
       </c>
       <c r="J4">
-        <v>1.057057274455382</v>
+        <v>1.054355161157772</v>
       </c>
       <c r="K4">
-        <v>1.06284280313647</v>
+        <v>1.05924957685294</v>
       </c>
       <c r="L4">
-        <v>1.058233277628263</v>
+        <v>1.055838761550856</v>
       </c>
       <c r="M4">
-        <v>1.067504338240832</v>
+        <v>1.064997143071333</v>
       </c>
       <c r="N4">
-        <v>1.022426735971995</v>
+        <v>1.021282050095421</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.061997234593885</v>
+        <v>1.060013012124157</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.055503569987232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.052971362526685</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.027411707519254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039611511071068</v>
+        <v>1.036793203564417</v>
       </c>
       <c r="D5">
-        <v>1.054061652623332</v>
+        <v>1.050368479887148</v>
       </c>
       <c r="E5">
-        <v>1.049486246233643</v>
+        <v>1.047018794908842</v>
       </c>
       <c r="F5">
-        <v>1.058805022496386</v>
+        <v>1.056225793274989</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.060695510038911</v>
+        <v>1.05890413233664</v>
       </c>
       <c r="J5">
-        <v>1.057624273172957</v>
+        <v>1.054869383490413</v>
       </c>
       <c r="K5">
-        <v>1.063339253466375</v>
+        <v>1.059684424050446</v>
       </c>
       <c r="L5">
-        <v>1.058811398715853</v>
+        <v>1.056369802136912</v>
       </c>
       <c r="M5">
-        <v>1.068033854957881</v>
+        <v>1.065481077509028</v>
       </c>
       <c r="N5">
-        <v>1.022626815119761</v>
+        <v>1.021425183865076</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.062416299434402</v>
+        <v>1.060396003679105</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.055861608911312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.05328656028953</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.027503983643057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039787510882273</v>
+        <v>1.036960069437794</v>
       </c>
       <c r="D6">
-        <v>1.054187342036085</v>
+        <v>1.050483556060142</v>
       </c>
       <c r="E6">
-        <v>1.04962471615984</v>
+        <v>1.047149028208678</v>
       </c>
       <c r="F6">
-        <v>1.058934578847165</v>
+        <v>1.056347430260578</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.060744525295886</v>
+        <v>1.058947217492864</v>
       </c>
       <c r="J6">
-        <v>1.057724355823495</v>
+        <v>1.054960214477076</v>
       </c>
       <c r="K6">
-        <v>1.063428496052323</v>
+        <v>1.059762989363292</v>
       </c>
       <c r="L6">
-        <v>1.058913072833186</v>
+        <v>1.056463207414391</v>
       </c>
       <c r="M6">
-        <v>1.068127146381106</v>
+        <v>1.065566410453597</v>
       </c>
       <c r="N6">
-        <v>1.022662912602814</v>
+        <v>1.021451037205451</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.062490131179044</v>
+        <v>1.060463537181729</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.055933269839315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.053351545354722</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.027521411350358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038619820250389</v>
+        <v>1.03586065025242</v>
       </c>
       <c r="D7">
-        <v>1.053374634505921</v>
+        <v>1.049747656794669</v>
       </c>
       <c r="E7">
-        <v>1.048713105983802</v>
+        <v>1.046298597689277</v>
       </c>
       <c r="F7">
-        <v>1.05808225383336</v>
+        <v>1.055553216947777</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060437609853099</v>
+        <v>1.058683600828932</v>
       </c>
       <c r="J7">
-        <v>1.057078938622021</v>
+        <v>1.054383714539118</v>
       </c>
       <c r="K7">
-        <v>1.062866081850599</v>
+        <v>1.059277762218441</v>
       </c>
       <c r="L7">
-        <v>1.058254298196982</v>
+        <v>1.05586576960298</v>
       </c>
       <c r="M7">
-        <v>1.067524008282283</v>
+        <v>1.065021600127433</v>
       </c>
       <c r="N7">
-        <v>1.022436520295223</v>
+        <v>1.021317733749288</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.062012801665995</v>
+        <v>1.060032367738093</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.055539723574722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.053012994524569</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.027420770197933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033643712428079</v>
+        <v>1.031159168936117</v>
       </c>
       <c r="D8">
-        <v>1.049913200520763</v>
+        <v>1.046600814811361</v>
       </c>
       <c r="E8">
-        <v>1.044837449688659</v>
+        <v>1.04266953331546</v>
       </c>
       <c r="F8">
-        <v>1.0544602691831</v>
+        <v>1.052167243834449</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.059109285859884</v>
+        <v>1.057530843530076</v>
       </c>
       <c r="J8">
-        <v>1.054319042977757</v>
+        <v>1.051900564490003</v>
       </c>
       <c r="K8">
-        <v>1.060456988300712</v>
+        <v>1.05718448612998</v>
       </c>
       <c r="L8">
-        <v>1.055442481335575</v>
+        <v>1.05330094884594</v>
       </c>
       <c r="M8">
-        <v>1.064949812683146</v>
+        <v>1.062684069334058</v>
       </c>
       <c r="N8">
-        <v>1.021465923016031</v>
+        <v>1.02068277213163</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.059975554273501</v>
+        <v>1.05818241502571</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.053840842253937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.051537873500179</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026977841816729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024521202500443</v>
+        <v>1.022522910041891</v>
       </c>
       <c r="D9">
-        <v>1.043590625732912</v>
+        <v>1.040840392580197</v>
       </c>
       <c r="E9">
-        <v>1.037773854944355</v>
+        <v>1.036042474757785</v>
       </c>
       <c r="F9">
-        <v>1.047866075449215</v>
+        <v>1.045992958552339</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.05660980735594</v>
+        <v>1.055342225083237</v>
       </c>
       <c r="J9">
-        <v>1.049236808232084</v>
+        <v>1.047304649248334</v>
       </c>
       <c r="K9">
-        <v>1.05601395980518</v>
+        <v>1.053303877388873</v>
       </c>
       <c r="L9">
-        <v>1.050282426966673</v>
+        <v>1.048576653034383</v>
       </c>
       <c r="M9">
-        <v>1.060227522268416</v>
+        <v>1.058381439867607</v>
       </c>
       <c r="N9">
-        <v>1.019673254638766</v>
+        <v>1.019415511416954</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.056238266463908</v>
+        <v>1.054777245627201</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.050696325127497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04879072481844</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.026132285061141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018274165298713</v>
+        <v>1.016652321772276</v>
       </c>
       <c r="D10">
-        <v>1.039307303787866</v>
+        <v>1.036973682716293</v>
       </c>
       <c r="E10">
-        <v>1.032994500571797</v>
+        <v>1.031598826241803</v>
       </c>
       <c r="F10">
-        <v>1.043438268653852</v>
+        <v>1.041883103837079</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.054891125202135</v>
+        <v>1.053857495187477</v>
       </c>
       <c r="J10">
-        <v>1.045781047081636</v>
+        <v>1.044220479820041</v>
       </c>
       <c r="K10">
-        <v>1.053001356648866</v>
+        <v>1.050705982998517</v>
       </c>
       <c r="L10">
-        <v>1.046792531742871</v>
+        <v>1.045420066854172</v>
       </c>
       <c r="M10">
-        <v>1.05706515463239</v>
+        <v>1.055535195525658</v>
       </c>
       <c r="N10">
-        <v>1.018464021300329</v>
+        <v>1.018685068089967</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.053786013892615</v>
+        <v>1.052575247520985</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.048582807313373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.046972105007673</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025567402430222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016114066029931</v>
+        <v>1.014638055208685</v>
       </c>
       <c r="D11">
-        <v>1.037994995575312</v>
+        <v>1.035811118858508</v>
       </c>
       <c r="E11">
-        <v>1.031550919770252</v>
+        <v>1.030279725991696</v>
       </c>
       <c r="F11">
-        <v>1.042332530845965</v>
+        <v>1.040895114362274</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.054504882679961</v>
+        <v>1.053552619570937</v>
       </c>
       <c r="J11">
-        <v>1.044831513298529</v>
+        <v>1.043414303213562</v>
       </c>
       <c r="K11">
-        <v>1.052234272253968</v>
+        <v>1.050087878361688</v>
       </c>
       <c r="L11">
-        <v>1.045901390223358</v>
+        <v>1.044652343852308</v>
       </c>
       <c r="M11">
-        <v>1.056497961642621</v>
+        <v>1.055084928928595</v>
       </c>
       <c r="N11">
-        <v>1.018218039614452</v>
+        <v>1.018752513097393</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.053765798540572</v>
+        <v>1.05264810782079</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.048072736916834</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.046570590230369</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025500978998676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015526893181037</v>
+        <v>1.014076648377553</v>
       </c>
       <c r="D12">
-        <v>1.037711762307304</v>
+        <v>1.035554447031593</v>
       </c>
       <c r="E12">
-        <v>1.031254735463367</v>
+        <v>1.030002024026716</v>
       </c>
       <c r="F12">
-        <v>1.042227869316687</v>
+        <v>1.040810385187981</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.054499324286106</v>
+        <v>1.053557032566895</v>
       </c>
       <c r="J12">
-        <v>1.044688359877094</v>
+        <v>1.043296980348516</v>
       </c>
       <c r="K12">
-        <v>1.052150453498207</v>
+        <v>1.050030772949779</v>
       </c>
       <c r="L12">
-        <v>1.045806679696984</v>
+        <v>1.044576153576308</v>
       </c>
       <c r="M12">
-        <v>1.056588428478086</v>
+        <v>1.055195373453597</v>
       </c>
       <c r="N12">
-        <v>1.018236219696655</v>
+        <v>1.018867735714655</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.05415862085649</v>
+        <v>1.053057093877959</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.04801347624999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.046530216828609</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025537522135783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01613153294762</v>
+        <v>1.014601251884049</v>
       </c>
       <c r="D13">
-        <v>1.038224320812098</v>
+        <v>1.035988618702886</v>
       </c>
       <c r="E13">
-        <v>1.031841015218465</v>
+        <v>1.030513565992483</v>
       </c>
       <c r="F13">
-        <v>1.042911401033012</v>
+        <v>1.041429107358088</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.054803915461415</v>
+        <v>1.053809417154585</v>
       </c>
       <c r="J13">
-        <v>1.045178342730847</v>
+        <v>1.043709851726323</v>
       </c>
       <c r="K13">
-        <v>1.052612397435351</v>
+        <v>1.05041552191837</v>
       </c>
       <c r="L13">
-        <v>1.046340525897637</v>
+        <v>1.045036474942499</v>
       </c>
       <c r="M13">
-        <v>1.057218777088719</v>
+        <v>1.055761903521863</v>
       </c>
       <c r="N13">
-        <v>1.018469421063444</v>
+        <v>1.018997562245841</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.054929839383542</v>
+        <v>1.053778131284711</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.048337626068472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.04679954133432</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02566148213555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017096210632628</v>
+        <v>1.015462883481095</v>
       </c>
       <c r="D14">
-        <v>1.038945784055406</v>
+        <v>1.036608504504931</v>
       </c>
       <c r="E14">
-        <v>1.032652224331627</v>
+        <v>1.031231335691286</v>
       </c>
       <c r="F14">
-        <v>1.043748285560981</v>
+        <v>1.042183090898895</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.055158341075523</v>
+        <v>1.054099976834529</v>
       </c>
       <c r="J14">
-        <v>1.045809329457319</v>
+        <v>1.044240998798271</v>
       </c>
       <c r="K14">
-        <v>1.053184862049438</v>
+        <v>1.050887662949364</v>
       </c>
       <c r="L14">
-        <v>1.046999761550576</v>
+        <v>1.045603596792687</v>
       </c>
       <c r="M14">
-        <v>1.057905735510296</v>
+        <v>1.056367037769842</v>
       </c>
       <c r="N14">
-        <v>1.018730622976286</v>
+        <v>1.019097186254165</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.055644080984332</v>
+        <v>1.054427848936678</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.048743763653218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.047134882722396</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025788925921366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017597498757985</v>
+        <v>1.015916405478008</v>
       </c>
       <c r="D15">
-        <v>1.039303787716383</v>
+        <v>1.036919093979834</v>
       </c>
       <c r="E15">
-        <v>1.033050939766697</v>
+        <v>1.031587430475361</v>
       </c>
       <c r="F15">
-        <v>1.044136714651867</v>
+        <v>1.042533176032614</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.055317910857449</v>
+        <v>1.054230742311011</v>
       </c>
       <c r="J15">
-        <v>1.046109316715266</v>
+        <v>1.044494534908338</v>
       </c>
       <c r="K15">
-        <v>1.053452669581364</v>
+        <v>1.051108557934484</v>
       </c>
       <c r="L15">
-        <v>1.047306746182908</v>
+        <v>1.045868505273457</v>
       </c>
       <c r="M15">
-        <v>1.058204083918848</v>
+        <v>1.056627482689119</v>
       </c>
       <c r="N15">
-        <v>1.018844811591032</v>
+        <v>1.01913058686682</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.05591701653832</v>
+        <v>1.054670856710916</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.048938872212821</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.047297394302716</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025842383279837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020128863971905</v>
+        <v>1.018242752895758</v>
       </c>
       <c r="D16">
-        <v>1.041025183567892</v>
+        <v>1.038432347271905</v>
       </c>
       <c r="E16">
-        <v>1.034966055440244</v>
+        <v>1.033322695887937</v>
       </c>
       <c r="F16">
-        <v>1.045903114753933</v>
+        <v>1.044134296636791</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.056003248151386</v>
+        <v>1.05479555103169</v>
       </c>
       <c r="J16">
-        <v>1.047491702111707</v>
+        <v>1.045676287145759</v>
       </c>
       <c r="K16">
-        <v>1.054656599491737</v>
+        <v>1.052105969378643</v>
       </c>
       <c r="L16">
-        <v>1.048696526775614</v>
+        <v>1.047080290815129</v>
       </c>
       <c r="M16">
-        <v>1.059455855123035</v>
+        <v>1.057715457056422</v>
       </c>
       <c r="N16">
-        <v>1.019316908184458</v>
+        <v>1.019239183896059</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.056868154705475</v>
+        <v>1.055492489680857</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.049793172898229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.048005984344265</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.026050014557923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021566849935402</v>
+        <v>1.019587750920023</v>
       </c>
       <c r="D17">
-        <v>1.041968906943019</v>
+        <v>1.03927739659304</v>
       </c>
       <c r="E17">
-        <v>1.036011462232388</v>
+        <v>1.034287631443416</v>
       </c>
       <c r="F17">
-        <v>1.046817069780252</v>
+        <v>1.04497202420953</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.056341142765821</v>
+        <v>1.055079447636582</v>
       </c>
       <c r="J17">
-        <v>1.048220750565152</v>
+        <v>1.046313467775669</v>
       </c>
       <c r="K17">
-        <v>1.055279019001396</v>
+        <v>1.052630099646238</v>
       </c>
       <c r="L17">
-        <v>1.049416227114919</v>
+        <v>1.047720045746011</v>
       </c>
       <c r="M17">
-        <v>1.060051169923639</v>
+        <v>1.058234945572093</v>
       </c>
       <c r="N17">
-        <v>1.019541845201609</v>
+        <v>1.019299821689766</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.057211270478672</v>
+        <v>1.055775529782454</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.050235771621459</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.048379340138201</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.026143900049421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022181114489511</v>
+        <v>1.020185671719797</v>
       </c>
       <c r="D18">
-        <v>1.042305939801906</v>
+        <v>1.039592802436597</v>
       </c>
       <c r="E18">
-        <v>1.036378930082188</v>
+        <v>1.034643161599252</v>
       </c>
       <c r="F18">
-        <v>1.047043162809702</v>
+        <v>1.04518365004185</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.056396163568597</v>
+        <v>1.055127130454404</v>
       </c>
       <c r="J18">
-        <v>1.048431564954735</v>
+        <v>1.04650719586227</v>
       </c>
       <c r="K18">
-        <v>1.05543229919503</v>
+        <v>1.052761402135481</v>
       </c>
       <c r="L18">
-        <v>1.049597932133762</v>
+        <v>1.047889552010488</v>
       </c>
       <c r="M18">
-        <v>1.060096438960147</v>
+        <v>1.058265512886925</v>
       </c>
       <c r="N18">
-        <v>1.019563598074714</v>
+        <v>1.019277497942989</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.05701270507404</v>
+        <v>1.055565048515323</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.050332719883143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.048459610386934</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.026136968916626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02207559382349</v>
+        <v>1.020122189639701</v>
       </c>
       <c r="D19">
-        <v>1.042122877478469</v>
+        <v>1.039449136196742</v>
       </c>
       <c r="E19">
-        <v>1.036155521972129</v>
+        <v>1.034460119352342</v>
       </c>
       <c r="F19">
-        <v>1.046666987113867</v>
+        <v>1.044840856670707</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.056215725195219</v>
+        <v>1.054975375289154</v>
       </c>
       <c r="J19">
-        <v>1.048199881445777</v>
+        <v>1.046315665131977</v>
       </c>
       <c r="K19">
-        <v>1.055191214827638</v>
+        <v>1.052558896219857</v>
       </c>
       <c r="L19">
-        <v>1.049316683851917</v>
+        <v>1.047647903863171</v>
       </c>
       <c r="M19">
-        <v>1.05966554445887</v>
+        <v>1.057867363260502</v>
       </c>
       <c r="N19">
-        <v>1.019418511012315</v>
+        <v>1.019170904351091</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.056351689600507</v>
+        <v>1.054929472901366</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.050168549611539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.048323343435197</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.026047945167467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019932631775547</v>
+        <v>1.01818297657571</v>
       </c>
       <c r="D20">
-        <v>1.0404605840459</v>
+        <v>1.03799533934833</v>
       </c>
       <c r="E20">
-        <v>1.034268527920423</v>
+        <v>1.032759088875901</v>
       </c>
       <c r="F20">
-        <v>1.044619887094273</v>
+        <v>1.042960258163804</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.055366848782378</v>
+        <v>1.054255761696289</v>
       </c>
       <c r="J20">
-        <v>1.046716233024573</v>
+        <v>1.045030531946347</v>
       </c>
       <c r="K20">
-        <v>1.053827431856755</v>
+        <v>1.05140144270212</v>
       </c>
       <c r="L20">
-        <v>1.047734431394278</v>
+        <v>1.04624937033774</v>
       </c>
       <c r="M20">
-        <v>1.057921041301344</v>
+        <v>1.056287544755474</v>
       </c>
       <c r="N20">
-        <v>1.01879821672322</v>
+        <v>1.018812729708261</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.054452987774387</v>
+        <v>1.053160269881719</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.049208190036528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.047509254169454</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025722570532004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,105 +1617,123 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015130125572985</v>
+        <v>1.013806732541032</v>
       </c>
       <c r="D21">
-        <v>1.037143378129087</v>
+        <v>1.035105253118179</v>
       </c>
       <c r="E21">
-        <v>1.03056707336566</v>
+        <v>1.0294371502418</v>
       </c>
       <c r="F21">
-        <v>1.041147256332096</v>
+        <v>1.039831721707756</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.053991151506528</v>
+        <v>1.053136048220314</v>
       </c>
       <c r="J21">
-        <v>1.04400860540664</v>
+        <v>1.042738330674448</v>
       </c>
       <c r="K21">
-        <v>1.05145364603008</v>
+        <v>1.049450729815672</v>
       </c>
       <c r="L21">
-        <v>1.044991595668581</v>
+        <v>1.043881493881422</v>
       </c>
       <c r="M21">
-        <v>1.055388875334839</v>
+        <v>1.054095820992258</v>
       </c>
       <c r="N21">
-        <v>1.017834270040254</v>
+        <v>1.018597668059227</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.052408873458258</v>
+        <v>1.051385523493867</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.047533066754405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.046133579051102</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025296859272394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>1.01207328588012</v>
+        <v>1.011020594453282</v>
       </c>
       <c r="D22">
-        <v>1.035040889208578</v>
+        <v>1.033274147048104</v>
       </c>
       <c r="E22">
-        <v>1.028228338318418</v>
+        <v>1.027339868017737</v>
       </c>
       <c r="F22">
-        <v>1.038968909279321</v>
+        <v>1.037872366874494</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.05311512482747</v>
+        <v>1.052423023386123</v>
       </c>
       <c r="J22">
-        <v>1.042292567042495</v>
+        <v>1.041284589493329</v>
       </c>
       <c r="K22">
-        <v>1.049948736877961</v>
+        <v>1.048214051675493</v>
       </c>
       <c r="L22">
-        <v>1.043260587927516</v>
+        <v>1.042388500230641</v>
       </c>
       <c r="M22">
-        <v>1.053805991776831</v>
+        <v>1.052729134080161</v>
       </c>
       <c r="N22">
-        <v>1.017225313859559</v>
+        <v>1.018457183321824</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.051156146463792</v>
+        <v>1.050303897671836</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.046455786427537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.045244640902711</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025026988525321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013685042407318</v>
+        <v>1.012474819305912</v>
       </c>
       <c r="D23">
-        <v>1.03614273629369</v>
+        <v>1.034221118974842</v>
       </c>
       <c r="E23">
-        <v>1.029458311975322</v>
+        <v>1.028429386046499</v>
       </c>
       <c r="F23">
-        <v>1.040114481877146</v>
+        <v>1.038891586229412</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.053572007784727</v>
+        <v>1.052785713021377</v>
       </c>
       <c r="J23">
-        <v>1.043191738581959</v>
+        <v>1.042031413646035</v>
       </c>
       <c r="K23">
-        <v>1.050733618161942</v>
+        <v>1.048845980120549</v>
       </c>
       <c r="L23">
-        <v>1.044168102563727</v>
+        <v>1.0431576585143</v>
       </c>
       <c r="M23">
-        <v>1.05463564815761</v>
+        <v>1.053434144270349</v>
       </c>
       <c r="N23">
-        <v>1.017542009707205</v>
+        <v>1.018482606399087</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.05181275405292</v>
+        <v>1.050861858303902</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.047001237018343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.045681005685422</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025161047695996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019932377445173</v>
+        <v>1.018187456033447</v>
       </c>
       <c r="D24">
-        <v>1.040435675930464</v>
+        <v>1.037974455352235</v>
       </c>
       <c r="E24">
-        <v>1.034245416501177</v>
+        <v>1.0327406628391</v>
       </c>
       <c r="F24">
-        <v>1.044575458561774</v>
+        <v>1.042919517986879</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.055338050283812</v>
+        <v>1.054230332933629</v>
       </c>
       <c r="J24">
-        <v>1.046684162982652</v>
+        <v>1.045002933181391</v>
       </c>
       <c r="K24">
-        <v>1.053788051535407</v>
+        <v>1.051365974667265</v>
       </c>
       <c r="L24">
-        <v>1.0476966985818</v>
+        <v>1.04621621745621</v>
       </c>
       <c r="M24">
-        <v>1.057862526599837</v>
+        <v>1.056232629853497</v>
       </c>
       <c r="N24">
-        <v>1.018775757679497</v>
+        <v>1.018793514586636</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.054366568384415</v>
+        <v>1.053076637493842</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.049153423712162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04745457211059</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025705851049129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026944503761213</v>
+        <v>1.024803501612766</v>
       </c>
       <c r="D25">
-        <v>1.045276513954236</v>
+        <v>1.042367014652797</v>
       </c>
       <c r="E25">
-        <v>1.039648477898075</v>
+        <v>1.037789302047675</v>
       </c>
       <c r="F25">
-        <v>1.04961529208346</v>
+        <v>1.047621021974404</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.057289673013331</v>
+        <v>1.05593233972525</v>
       </c>
       <c r="J25">
-        <v>1.050597900757862</v>
+        <v>1.04852402132592</v>
       </c>
       <c r="K25">
-        <v>1.057210397260518</v>
+        <v>1.054341403458578</v>
       </c>
       <c r="L25">
-        <v>1.051660972468058</v>
+        <v>1.049828001995921</v>
       </c>
       <c r="M25">
-        <v>1.061489297303765</v>
+        <v>1.059522471837387</v>
       </c>
       <c r="N25">
-        <v>1.020157309279824</v>
+        <v>1.01972352533378</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.057236854958059</v>
+        <v>1.055680277958561</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.051570302057798</v>
+        <v>1.049555161265676</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.026362628694388</v>
       </c>
     </row>
   </sheetData>
